--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -145,12 +145,18 @@
   <si>
     <t>Realme Price List (Last Update 04-05-2021)</t>
   </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 05-05-2021)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +210,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -262,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -295,14 +314,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,8 +416,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14318</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>233393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -720,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -734,28 +762,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1055,44 +1083,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="7" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>29</v>
@@ -1101,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1138,7 @@
         <v>8990</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1119,217 +1147,200 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="19">
         <v>8540</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="18">
         <f>8990</f>
         <v>8990</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="19">
         <v>10290</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="18">
         <f>10990</f>
         <v>10990</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="19">
         <v>12090</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="18">
         <f>12990</f>
         <v>12990</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="19">
         <v>13040</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="18">
         <f>13990</f>
         <v>13990</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="19">
         <v>14540</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="18">
         <f>15490</f>
         <v>15490</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="19">
         <v>8490</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="18">
         <v>8990</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="19">
         <v>10320</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="18">
         <v>10990</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="19">
         <v>11200</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="18">
         <f>11990</f>
         <v>11990</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="19">
         <v>13070</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="18">
         <v>13990</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="19">
         <v>13990</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="18">
         <v>14990</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="19">
         <v>16810</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <f>17990</f>
         <v>17990</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="19">
         <v>25910</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="18">
         <f>27990</f>
         <v>27990</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="19">
         <v>21270</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="18">
         <v>22990</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="19">
         <v>25890</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="18">
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="19">
         <v>12240</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="18">
         <f>12990</f>
         <v>12990</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1338,6 +1349,7 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>Model Name</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 05-05-2021)</t>
+    <t>Realme Price List (Last Update 06-05-2021)</t>
   </si>
 </sst>
 </file>
@@ -314,6 +314,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,12 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,28 +762,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,25 +1098,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1148,141 +1148,141 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>8540</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="14">
         <f>8990</f>
         <v>8990</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>10290</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="14">
         <f>10990</f>
         <v>10990</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>12090</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>13040</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <f>13990</f>
         <v>13990</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>14540</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <f>15490</f>
         <v>15490</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>8490</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>8990</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>10320</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>10990</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>11200</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="14">
         <f>11990</f>
         <v>11990</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>13070</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>13990</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>13990</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>14990</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>16810</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <f>17990</f>
         <v>17990</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>25910</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <f>27990</f>
         <v>27990</v>
       </c>
@@ -1298,36 +1298,36 @@
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <v>21270</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>22990</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <v>25890</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <f>27990</f>
         <v>27990</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="15">
         <v>12240</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -143,13 +143,13 @@
     <t>C25 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 04-05-2021)</t>
-  </si>
-  <si>
     <t>Model Name</t>
   </si>
   <si>
     <t>Realme Price List (Last Update 06-05-2021)</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 23-05-2021)</t>
   </si>
 </sst>
 </file>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,14 +1113,14 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>29</v>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -146,10 +146,10 @@
     <t>Model Name</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 06-05-2021)</t>
-  </si>
-  <si>
     <t>Realme Price List (Last Update 23-05-2021)</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 03-06-2021)</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -149,7 +149,13 @@
     <t>Realme Price List (Last Update 23-05-2021)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 03-06-2021)</t>
+    <t>Realme Price List (Last Update 09-06-2021)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Running</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,11 +283,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -330,6 +349,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,42 +1118,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1128,8 +1167,11 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,8 +1179,9 @@
       <c r="C5" s="4">
         <v>8990</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1146,8 +1189,9 @@
       <c r="C6" s="4">
         <v>10990</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1158,8 +1202,9 @@
         <f>8990</f>
         <v>8990</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1170,8 +1215,9 @@
         <f>10990</f>
         <v>10990</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1182,8 +1228,9 @@
         <f>12990</f>
         <v>12990</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -1194,8 +1241,9 @@
         <f>13990</f>
         <v>13990</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1254,11 @@
         <f>15490</f>
         <v>15490</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1217,8 +1268,11 @@
       <c r="C12" s="14">
         <v>8990</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1228,8 +1282,11 @@
       <c r="C13" s="14">
         <v>10990</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1240,8 +1297,11 @@
         <f>11990</f>
         <v>11990</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
@@ -1251,8 +1311,11 @@
       <c r="C15" s="14">
         <v>13990</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1262,8 +1325,11 @@
       <c r="C16" s="14">
         <v>14990</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
@@ -1274,8 +1340,9 @@
         <f>17990</f>
         <v>17990</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
@@ -1286,18 +1353,25 @@
         <f>27990</f>
         <v>27990</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1307,8 +1381,11 @@
       <c r="C21" s="14">
         <v>22990</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
@@ -1319,8 +1396,11 @@
         <f>27990</f>
         <v>27990</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -1331,22 +1411,25 @@
         <f>12990</f>
         <v>12990</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -149,13 +149,13 @@
     <t>Realme Price List (Last Update 23-05-2021)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 09-06-2021)</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Running</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 16-06-2021)</t>
   </si>
 </sst>
 </file>
@@ -339,6 +339,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,23 +358,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,28 +797,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,12 +1134,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1150,12 +1150,12 @@
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       <c r="C5" s="4">
         <v>8990</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1189,7 +1189,7 @@
       <c r="C6" s="4">
         <v>10990</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -1202,7 +1202,7 @@
         <f>8990</f>
         <v>8990</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -1215,7 +1215,7 @@
         <f>10990</f>
         <v>10990</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1228,7 +1228,7 @@
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1241,7 +1241,7 @@
         <f>13990</f>
         <v>13990</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1255,7 +1255,7 @@
         <v>15490</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>8990</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>10990</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>11990</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>13990</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>14990</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
       <c r="D19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="4"/>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>22990</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>27990</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,13 +1412,13 @@
         <v>12990</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -155,7 +155,7 @@
     <t>Running</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 16-06-2021)</t>
+    <t>Realme Price List (Last Update 20-06-2021)</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -155,14 +155,26 @@
     <t>Running</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 20-06-2021)</t>
+    <t>Realme Price List (Last Update 30-06-2021)</t>
+  </si>
+  <si>
+    <t>C25s (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>C25s (4GB+128GB)</t>
+  </si>
+  <si>
+    <t>New Running</t>
+  </si>
+  <si>
+    <t>Narzo 20 (4GB+64GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +241,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -358,10 +385,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,16 +1145,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -1141,7 +1171,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1221,7 @@
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1234,7 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1247,7 @@
       </c>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1260,7 @@
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1273,7 @@
       </c>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -1254,11 +1284,9 @@
         <f>15490</f>
         <v>15490</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1272,7 +1300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
@@ -1315,7 +1343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1329,49 +1357,61 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="15">
+        <v>13540</v>
+      </c>
+      <c r="C17" s="14">
+        <v>14490</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15">
+        <v>14470</v>
+      </c>
+      <c r="C18" s="14">
+        <v>15490</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B19" s="15">
         <v>16810</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C19" s="14">
         <f>17990</f>
         <v>17990</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B20" s="15">
         <v>25910</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C20" s="14">
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -1424,6 +1464,18 @@
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="15">
+        <v>13190</v>
+      </c>
+      <c r="C26" s="14">
+        <v>13990</v>
+      </c>
+      <c r="D26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1431,8 +1483,9 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="94" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -155,9 +155,6 @@
     <t>Running</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 30-06-2021)</t>
-  </si>
-  <si>
     <t>C25s (4GB+64GB)</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Narzo 20 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 04-07-2021)</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="15">
         <v>13540</v>
@@ -1368,12 +1368,12 @@
         <v>14490</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="15">
         <v>14470</v>
@@ -1382,7 +1382,7 @@
         <v>15490</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
     </row>
     <row r="26" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="15">
         <v>13190</v>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -167,7 +167,7 @@
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 04-07-2021)</t>
+    <t>Realme Price List (Last Update 11-07-2021)</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -167,7 +167,10 @@
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 11-07-2021)</t>
+    <t>Realme Price List (Last Update 19-07-2021)</t>
+  </si>
+  <si>
+    <t>Running/Stock Out</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1153,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="E8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1162,7 @@
     <col min="1" max="1" width="43.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1340,7 +1343,7 @@
         <v>13990</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1357,7 @@
         <v>14990</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1455,7 @@
         <v>12990</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -167,10 +167,10 @@
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 19-07-2021)</t>
-  </si>
-  <si>
     <t>Running/Stock Out</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 25-07-2021)</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1153,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1343,7 +1343,7 @@
         <v>13990</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>14990</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>12990</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -167,10 +167,7 @@
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Running/Stock Out</t>
-  </si>
-  <si>
-    <t>Realme Price List (Last Update 25-07-2021)</t>
+    <t>Realme Price List (Last Update 04-08-2021)</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1151,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="I8:J8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,9 +1179,9 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1214,7 +1211,7 @@
       </c>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1342,9 +1339,7 @@
       <c r="C15" s="14">
         <v>13990</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -1356,9 +1351,7 @@
       <c r="C16" s="14">
         <v>14990</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1454,9 +1447,7 @@
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -167,7 +167,7 @@
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 04-08-2021)</t>
+    <t>Realme Price List (Last Update 09-08-2021)</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1479,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="94" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -167,7 +167,7 @@
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 09-08-2021)</t>
+    <t>Realme Price List (Last Update 11-08-2021)</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -161,20 +161,46 @@
     <t>C25s (4GB+128GB)</t>
   </si>
   <si>
-    <t>New Running</t>
-  </si>
-  <si>
     <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
-    <t>Realme Price List (Last Update 11-08-2021)</t>
+    <t xml:space="preserve"> Running</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 15-08-2021)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price list of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Realme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mobile</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,14 +270,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -385,13 +404,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,8 +1169,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J34" sqref="J33:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,28 +1183,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1364,7 +1383,7 @@
         <v>14490</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1397,7 @@
         <v>15490</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1480,7 @@
     </row>
     <row r="26" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15">
         <v>13190</v>
@@ -1478,8 +1497,8 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>Narzo 20 (4GB+64GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (Last Update 15-08-2021)</t>
   </si>
   <si>
     <r>
@@ -194,6 +188,15 @@
       </rPr>
       <t xml:space="preserve"> Mobile</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 04-09-2021)</t>
+  </si>
+  <si>
+    <t>8 (5G) (8GB+128GB)</t>
+  </si>
+  <si>
+    <t>Narzo 30 (6GB+128GB)</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -395,6 +398,12 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,13 +413,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,28 +852,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1167,10 +1176,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J34" sqref="J33:J34"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,20 +1192,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -1383,7 +1392,7 @@
         <v>14490</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,7 +1406,7 @@
         <v>15490</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,13 +1436,13 @@
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="15">
-        <v>21270</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="A21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="21">
+        <v>21500</v>
+      </c>
+      <c r="C21" s="20">
         <v>22990</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -1442,53 +1451,79 @@
     </row>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="15">
+        <v>21270</v>
+      </c>
+      <c r="C22" s="14">
+        <v>22990</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B23" s="15">
         <v>25890</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="14">
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="21">
+        <v>18790</v>
+      </c>
+      <c r="C24" s="20">
+        <v>19990</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B25" s="15">
         <v>12240</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C25" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B28" s="15">
         <v>13190</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C28" s="14">
         <v>13990</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1498,7 +1533,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/realme/Others/Price List/realme price list.xlsx
+++ b/realme/Others/Price List/realme price list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -140,9 +140,6 @@
     <t>C20A (2GB+32GB)</t>
   </si>
   <si>
-    <t>C25 (4GB+64GB)</t>
-  </si>
-  <si>
     <t>Model Name</t>
   </si>
   <si>
@@ -152,16 +149,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Running</t>
-  </si>
-  <si>
     <t>C25s (4GB+64GB)</t>
   </si>
   <si>
     <t>C25s (4GB+128GB)</t>
-  </si>
-  <si>
-    <t>Narzo 20 (4GB+64GB)</t>
   </si>
   <si>
     <r>
@@ -190,13 +181,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 04-09-2021)</t>
-  </si>
-  <si>
     <t>8 (5G) (8GB+128GB)</t>
   </si>
   <si>
     <t>Narzo 30 (6GB+128GB)</t>
+  </si>
+  <si>
+    <t>C11  (2GB+32GB)</t>
+  </si>
+  <si>
+    <t>C21 Y (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT Master </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 24-10-2021)</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -398,12 +398,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,28 +846,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1176,10 +1170,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,32 +1186,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>29</v>
@@ -1226,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,10 +1245,10 @@
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B7" s="15">
-        <v>8540</v>
+        <v>8490</v>
       </c>
       <c r="C7" s="14">
         <f>8990</f>
@@ -1277,253 +1271,186 @@
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="15">
-        <v>12090</v>
+        <v>14540</v>
       </c>
       <c r="C9" s="14">
+        <f>15490</f>
+        <v>15490</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="15">
+        <v>8490</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8990</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15">
+        <v>10320</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10990</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="15">
+        <v>11670</v>
+      </c>
+      <c r="C12" s="14">
+        <v>12490</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="15">
+        <v>13540</v>
+      </c>
+      <c r="C13" s="14">
+        <v>14490</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="15">
+        <v>14470</v>
+      </c>
+      <c r="C14" s="14">
+        <v>15490</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <v>16810</v>
+      </c>
+      <c r="C15" s="14">
+        <f>17990</f>
+        <v>17990</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>25910</v>
+      </c>
+      <c r="C16" s="14">
+        <f>27990</f>
+        <v>27990</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="15">
+        <v>21500</v>
+      </c>
+      <c r="C17" s="14">
+        <v>22990</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="15">
+        <v>21270</v>
+      </c>
+      <c r="C18" s="14">
+        <v>22990</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="15">
+        <v>25890</v>
+      </c>
+      <c r="C19" s="14">
+        <f>27990</f>
+        <v>27990</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="15">
+        <v>18790</v>
+      </c>
+      <c r="C20" s="14">
+        <v>19990</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
+        <v>12240</v>
+      </c>
+      <c r="C21" s="14">
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15">
-        <v>13040</v>
-      </c>
-      <c r="C10" s="14">
-        <f>13990</f>
-        <v>13990</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15">
-        <v>14540</v>
-      </c>
-      <c r="C11" s="14">
-        <f>15490</f>
-        <v>15490</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="15">
-        <v>8490</v>
-      </c>
-      <c r="C12" s="14">
-        <v>8990</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="15">
-        <v>10320</v>
-      </c>
-      <c r="C13" s="14">
-        <v>10990</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="15">
-        <v>11200</v>
-      </c>
-      <c r="C14" s="14">
-        <f>11990</f>
-        <v>11990</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="15">
-        <v>13070</v>
-      </c>
-      <c r="C15" s="14">
-        <v>13990</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="15">
-        <v>13990</v>
-      </c>
-      <c r="C16" s="14">
-        <v>14990</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="15">
-        <v>13540</v>
-      </c>
-      <c r="C17" s="14">
-        <v>14490</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15">
-        <v>14470</v>
-      </c>
-      <c r="C18" s="14">
-        <v>15490</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="15">
-        <v>16810</v>
-      </c>
-      <c r="C19" s="14">
-        <f>17990</f>
-        <v>17990</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="15">
-        <v>25910</v>
-      </c>
-      <c r="C20" s="14">
-        <f>27990</f>
-        <v>27990</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="21">
-        <v>21500</v>
-      </c>
-      <c r="C21" s="20">
-        <v>22990</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="15">
-        <v>21270</v>
-      </c>
-      <c r="C22" s="14">
-        <v>22990</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15">
-        <v>25890</v>
-      </c>
-      <c r="C23" s="14">
-        <f>27990</f>
-        <v>27990</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="21">
-        <v>18790</v>
-      </c>
-      <c r="C24" s="20">
-        <v>19990</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="15">
-        <v>12240</v>
-      </c>
-      <c r="C25" s="14">
-        <f>12990</f>
-        <v>12990</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="15">
-        <v>13190</v>
-      </c>
-      <c r="C28" s="14">
-        <v>13990</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="B24" s="15">
+        <v>31990</v>
+      </c>
+      <c r="C24" s="14">
+        <v>33990</v>
+      </c>
+      <c r="D24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
